--- a/medicine/Handicap/Allocation_d'éducation_de_l'enfant_handicapé/Allocation_d'éducation_de_l'enfant_handicapé.xlsx
+++ b/medicine/Handicap/Allocation_d'éducation_de_l'enfant_handicapé/Allocation_d'éducation_de_l'enfant_handicapé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Allocation_d%27%C3%A9ducation_de_l%27enfant_handicap%C3%A9</t>
+          <t>Allocation_d'éducation_de_l'enfant_handicapé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’allocation d’éducation de l’enfant handicapé (AEEH) est une allocation versée, en France au bénéfice des enfants handicapés.
-Elle remplace depuis 2006 (Loi pour l'égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées) l’allocation d’éducation spécialisée. À partir de 2021, l’allocation est financée par la Caisse nationale de solidarité pour l'autonomie, les organismes débiteurs des prestations familiales restant responsables du paiement et du contrôle[1].
-Son nombre de bénéficiaires en 2020 est de 372 000[2].
+Elle remplace depuis 2006 (Loi pour l'égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées) l’allocation d’éducation spécialisée. À partir de 2021, l’allocation est financée par la Caisse nationale de solidarité pour l'autonomie, les organismes débiteurs des prestations familiales restant responsables du paiement et du contrôle.
+Son nombre de bénéficiaires en 2020 est de 372 000.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Allocation_d%27%C3%A9ducation_de_l%27enfant_handicap%C3%A9</t>
+          <t>Allocation_d'éducation_de_l'enfant_handicapé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’allocation d’éducation de l’enfant handicapé est destinée à compenser les frais supportés par toute personne ayant à sa charge un enfant ou un adolescent handicapé.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Allocation_d%27%C3%A9ducation_de_l%27enfant_handicap%C3%A9</t>
+          <t>Allocation_d'éducation_de_l'enfant_handicapé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Conditions d'attribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour les résidents français :
 Justifier d'avoir à charge un enfant handicapé de moins de 20 ans
